--- a/_rooms/SP-23-03.xlsx
+++ b/_rooms/SP-23-03.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="442">
+  <fonts count="388">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -71,222 +71,6 @@
       <name val="calibri"/>
       <sz val="10.0"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="calibri"/>
-      <sz val="10.0"/>
     </font>
     <font>
       <name val="calibri"/>
@@ -1839,7 +1623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="442">
+  <cellXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
@@ -2982,168 +2766,6 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="387" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="407" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="409" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="415" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="421" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="422" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="423" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="429" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="430" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="431" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="433" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="437" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="439" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true"/>
     </xf>
   </cellXfs>
@@ -3161,7 +2783,7 @@
     <col min="1" max="1" width="6.796875" customWidth="true"/>
     <col min="2" max="2" width="9.43359375" customWidth="true"/>
     <col min="3" max="3" width="9.96484375" customWidth="true"/>
-    <col min="4" max="4" width="24.90234375" customWidth="true"/>
+    <col min="4" max="4" width="22.8203125" customWidth="true"/>
     <col min="5" max="5" width="21.70703125" customWidth="true"/>
     <col min="6" max="6" width="12.24609375" customWidth="true"/>
     <col min="7" max="7" width="5.98046875" customWidth="true"/>
@@ -3273,2296 +2895,2002 @@
       </c>
       <c r="B3" s="20" t="inlineStr">
         <is>
+          <t>06504029</t>
+        </is>
+      </c>
+      <c r="C3" s="21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D3" s="22" t="inlineStr">
+        <is>
+          <t>Borda,Armando Alejandro</t>
+        </is>
+      </c>
+      <c r="E3" s="23" t="inlineStr">
+        <is>
+          <t>aabd@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F3" s="24" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G3" s="25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="inlineStr">
+        <is>
+          <t>Undergraduate Matriculated - 
++Electrical Engineering (BS)</t>
+        </is>
+      </c>
+      <c r="I3" s="27" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B4" s="29" t="inlineStr">
+        <is>
           <t>06542673</t>
         </is>
       </c>
-      <c r="C3" s="21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="22" t="inlineStr">
+      <c r="C4" s="30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D4" s="31" t="inlineStr">
         <is>
           <t>Budden,Zak</t>
         </is>
       </c>
-      <c r="E3" s="23" t="inlineStr">
+      <c r="E4" s="32" t="inlineStr">
         <is>
           <t>zakb@stanford.edu</t>
         </is>
       </c>
-      <c r="F3" s="24" t="inlineStr">
+      <c r="F4" s="33" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G3" s="25" t="inlineStr">
+      <c r="G4" s="34" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H3" s="26" t="inlineStr">
+      <c r="H4" s="35" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I3" s="27" t="inlineStr">
+      <c r="I4" s="36" t="inlineStr">
         <is>
           <t>Professional Year 2</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B4" s="29" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B5" s="38" t="inlineStr">
         <is>
           <t>06644188</t>
         </is>
       </c>
-      <c r="C4" s="30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="31" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D5" s="40" t="inlineStr">
         <is>
           <t>Callaway,Connor</t>
         </is>
       </c>
-      <c r="E4" s="32" t="inlineStr">
+      <c r="E5" s="41" t="inlineStr">
         <is>
           <t>connorca@stanford.edu</t>
         </is>
       </c>
-      <c r="F4" s="33" t="inlineStr">
+      <c r="F5" s="42" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G4" s="34" t="inlineStr">
+      <c r="G5" s="43" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H4" s="35" t="inlineStr">
+      <c r="H5" s="44" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I4" s="36" t="inlineStr">
+      <c r="I5" s="45" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B5" s="38" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="46" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="47" t="inlineStr">
         <is>
           <t>06162433</t>
         </is>
       </c>
-      <c r="C5" s="39" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="40" t="inlineStr">
+      <c r="C6" s="48" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D6" s="49" t="inlineStr">
         <is>
           <t>Cohen,Adam Scott</t>
         </is>
       </c>
-      <c r="E5" s="41" t="inlineStr">
+      <c r="E6" s="50" t="inlineStr">
         <is>
           <t>acohen22@stanford.edu</t>
         </is>
       </c>
-      <c r="F5" s="42" t="inlineStr">
+      <c r="F6" s="51" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G5" s="43" t="inlineStr">
+      <c r="G6" s="52" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H5" s="44" t="inlineStr">
+      <c r="H6" s="53" t="inlineStr">
         <is>
           <t>Undergraduate Matriculated - 
  Biology (BS)/East Asian Studies (BA)</t>
         </is>
       </c>
-      <c r="I5" s="45" t="inlineStr">
+      <c r="I6" s="54" t="inlineStr">
         <is>
           <t>Senior</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="46" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B6" s="47" t="inlineStr">
-        <is>
-          <t>05892798</t>
-        </is>
-      </c>
-      <c r="C6" s="48" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="49" t="inlineStr">
-        <is>
-          <t>Deng,Lydia</t>
-        </is>
-      </c>
-      <c r="E6" s="50" t="inlineStr">
-        <is>
-          <t>lydiad@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F6" s="51" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="55" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B7" s="56" t="inlineStr">
+        <is>
+          <t>06678907</t>
+        </is>
+      </c>
+      <c r="C7" s="57" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D7" s="58" t="inlineStr">
+        <is>
+          <t>Fan,Allan</t>
+        </is>
+      </c>
+      <c r="E7" s="59" t="inlineStr">
+        <is>
+          <t>allanfan@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F7" s="60" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G6" s="52" t="inlineStr">
+      <c r="G7" s="61" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H6" s="53" t="inlineStr">
+      <c r="H7" s="62" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I6" s="54" t="inlineStr">
+      <c r="I7" s="63" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="55" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B7" s="56" t="inlineStr">
-        <is>
-          <t>06643446</t>
-        </is>
-      </c>
-      <c r="C7" s="57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="58" t="inlineStr">
-        <is>
-          <t>Dickinson,Katie</t>
-        </is>
-      </c>
-      <c r="E7" s="59" t="inlineStr">
-        <is>
-          <t>katieliz@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F7" s="60" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B8" s="65" t="inlineStr">
+        <is>
+          <t>06644562</t>
+        </is>
+      </c>
+      <c r="C8" s="66" t="inlineStr">
+        <is>
+          <t>She/her</t>
+        </is>
+      </c>
+      <c r="D8" s="67" t="inlineStr">
+        <is>
+          <t>Filochowska,Anna</t>
+        </is>
+      </c>
+      <c r="E8" s="68" t="inlineStr">
+        <is>
+          <t>annafilo@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F8" s="69" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G7" s="61" t="inlineStr">
+      <c r="G8" s="70" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H7" s="62" t="inlineStr">
+      <c r="H8" s="71" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I7" s="63" t="inlineStr">
+      <c r="I8" s="72" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B8" s="65" t="inlineStr">
-        <is>
-          <t>06678907</t>
-        </is>
-      </c>
-      <c r="C8" s="66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="67" t="inlineStr">
-        <is>
-          <t>Fan,Allan</t>
-        </is>
-      </c>
-      <c r="E8" s="68" t="inlineStr">
-        <is>
-          <t>allanfan@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F8" s="69" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="73" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B9" s="74" t="inlineStr">
+        <is>
+          <t>06644395</t>
+        </is>
+      </c>
+      <c r="C9" s="75" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D9" s="76" t="inlineStr">
+        <is>
+          <t>Forter,Gabriela</t>
+        </is>
+      </c>
+      <c r="E9" s="77" t="inlineStr">
+        <is>
+          <t>gforter@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F9" s="78" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G8" s="70" t="inlineStr">
+      <c r="G9" s="79" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H8" s="71" t="inlineStr">
+      <c r="H9" s="80" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I8" s="72" t="inlineStr">
+      <c r="I9" s="81" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="73" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B9" s="74" t="inlineStr">
-        <is>
-          <t>06644562</t>
-        </is>
-      </c>
-      <c r="C9" s="75" t="inlineStr">
-        <is>
-          <t>She/her</t>
-        </is>
-      </c>
-      <c r="D9" s="76" t="inlineStr">
-        <is>
-          <t>Filochowska,Anna</t>
-        </is>
-      </c>
-      <c r="E9" s="77" t="inlineStr">
-        <is>
-          <t>annafilo@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F9" s="78" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="82" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="83" t="inlineStr">
+        <is>
+          <t>06502032</t>
+        </is>
+      </c>
+      <c r="C10" s="84" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" s="85" t="inlineStr">
+        <is>
+          <t>Fu,Wanning</t>
+        </is>
+      </c>
+      <c r="E10" s="86" t="inlineStr">
+        <is>
+          <t>wf539@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F10" s="87" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G9" s="79" t="inlineStr">
+      <c r="G10" s="88" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H9" s="80" t="inlineStr">
+      <c r="H10" s="89" t="inlineStr">
+        <is>
+          <t>East Asian Studies - 
++East Asian Studies (MA)</t>
+        </is>
+      </c>
+      <c r="I10" s="90" t="inlineStr">
+        <is>
+          <t>Graduate Year 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="91" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B11" s="92" t="inlineStr">
+        <is>
+          <t>06679065</t>
+        </is>
+      </c>
+      <c r="C11" s="93" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D11" s="94" t="inlineStr">
+        <is>
+          <t>Guardado,Claudio</t>
+        </is>
+      </c>
+      <c r="E11" s="95" t="inlineStr">
+        <is>
+          <t>cguardad@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F11" s="96" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G11" s="97" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H11" s="98" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I9" s="81" t="inlineStr">
+      <c r="I11" s="99" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="82" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B10" s="83" t="inlineStr">
-        <is>
-          <t>06644395</t>
-        </is>
-      </c>
-      <c r="C10" s="84" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="85" t="inlineStr">
-        <is>
-          <t>Forter,Gabriela</t>
-        </is>
-      </c>
-      <c r="E10" s="86" t="inlineStr">
-        <is>
-          <t>gforter@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F10" s="87" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="100" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B12" s="101" t="inlineStr">
+        <is>
+          <t>06434746</t>
+        </is>
+      </c>
+      <c r="C12" s="102" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="103" t="inlineStr">
+        <is>
+          <t>Gupta,Shreya</t>
+        </is>
+      </c>
+      <c r="E12" s="104" t="inlineStr">
+        <is>
+          <t>shreyaa@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F12" s="105" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G10" s="88" t="inlineStr">
+      <c r="G12" s="106" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H10" s="89" t="inlineStr">
+      <c r="H12" s="107" t="inlineStr">
+        <is>
+          <t>Symbolic Systems - 
++Symbolic Systems (MS)</t>
+        </is>
+      </c>
+      <c r="I12" s="108" t="inlineStr">
+        <is>
+          <t>Graduate Year 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="109" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B13" s="110" t="inlineStr">
+        <is>
+          <t>06542437</t>
+        </is>
+      </c>
+      <c r="C13" s="111" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D13" s="112" t="inlineStr">
+        <is>
+          <t>Haffer,Lukas</t>
+        </is>
+      </c>
+      <c r="E13" s="113" t="inlineStr">
+        <is>
+          <t>lhaffer@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F13" s="114" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G13" s="115" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H13" s="116" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I10" s="90" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
+      <c r="I13" s="117" t="inlineStr">
+        <is>
+          <t>Professional Year 2</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="91" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B11" s="92" t="inlineStr">
-        <is>
-          <t>06679065</t>
-        </is>
-      </c>
-      <c r="C11" s="93" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="94" t="inlineStr">
-        <is>
-          <t>Guardado,Claudio</t>
-        </is>
-      </c>
-      <c r="E11" s="95" t="inlineStr">
-        <is>
-          <t>cguardad@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F11" s="96" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="118" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="119" t="inlineStr">
+        <is>
+          <t>06087928</t>
+        </is>
+      </c>
+      <c r="C14" s="120" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D14" s="121" t="inlineStr">
+        <is>
+          <t>Hughes,Sarah</t>
+        </is>
+      </c>
+      <c r="E14" s="122" t="inlineStr">
+        <is>
+          <t>sehughes@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F14" s="123" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G11" s="97" t="inlineStr">
+      <c r="G14" s="124" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H11" s="98" t="inlineStr">
+      <c r="H14" s="125" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I11" s="99" t="inlineStr">
+      <c r="I14" s="126" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="100" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B12" s="101" t="inlineStr">
-        <is>
-          <t>06542437</t>
-        </is>
-      </c>
-      <c r="C12" s="102" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="103" t="inlineStr">
-        <is>
-          <t>Haffer,Lukas</t>
-        </is>
-      </c>
-      <c r="E12" s="104" t="inlineStr">
-        <is>
-          <t>lhaffer@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F12" s="105" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="127" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B15" s="128" t="inlineStr">
+        <is>
+          <t>06262754</t>
+        </is>
+      </c>
+      <c r="C15" s="129" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D15" s="130" t="inlineStr">
+        <is>
+          <t>Jia,Rebecca Ran</t>
+        </is>
+      </c>
+      <c r="E15" s="131" t="inlineStr">
+        <is>
+          <t>rrjia@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F15" s="132" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G12" s="106" t="inlineStr">
+      <c r="G15" s="133" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H12" s="107" t="inlineStr">
+      <c r="H15" s="134" t="inlineStr">
+        <is>
+          <t>Mgmt Sci &amp; Engineering - 
++Mgmt Sci &amp; Engineering (MS)</t>
+        </is>
+      </c>
+      <c r="I15" s="135" t="inlineStr">
+        <is>
+          <t>Graduate Year 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="136" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B16" s="137" t="inlineStr">
+        <is>
+          <t>06643978</t>
+        </is>
+      </c>
+      <c r="C16" s="138" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D16" s="139" t="inlineStr">
+        <is>
+          <t>Kapur,Gautam</t>
+        </is>
+      </c>
+      <c r="E16" s="140" t="inlineStr">
+        <is>
+          <t>gautamgk@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F16" s="141" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G16" s="142" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H16" s="143" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I12" s="108" t="inlineStr">
-        <is>
-          <t>Professional Year 2</t>
+      <c r="I16" s="144" t="inlineStr">
+        <is>
+          <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="109" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B13" s="110" t="inlineStr">
-        <is>
-          <t>06087928</t>
-        </is>
-      </c>
-      <c r="C13" s="111" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="112" t="inlineStr">
-        <is>
-          <t>Hughes,Sarah</t>
-        </is>
-      </c>
-      <c r="E13" s="113" t="inlineStr">
-        <is>
-          <t>sehughes@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F13" s="114" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="145" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B17" s="146" t="inlineStr">
+        <is>
+          <t>06643368</t>
+        </is>
+      </c>
+      <c r="C17" s="147" t="inlineStr">
+        <is>
+          <t>She/her</t>
+        </is>
+      </c>
+      <c r="D17" s="148" t="inlineStr">
+        <is>
+          <t>Kawatra,Srishti</t>
+        </is>
+      </c>
+      <c r="E17" s="149" t="inlineStr">
+        <is>
+          <t>skawatra@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F17" s="150" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G13" s="115" t="inlineStr">
+      <c r="G17" s="151" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H13" s="116" t="inlineStr">
+      <c r="H17" s="152" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I13" s="117" t="inlineStr">
+      <c r="I17" s="153" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="118" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B14" s="119" t="inlineStr">
-        <is>
-          <t>06238646</t>
-        </is>
-      </c>
-      <c r="C14" s="120" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="121" t="inlineStr">
-        <is>
-          <t>Jackson,Allen Shannon</t>
-        </is>
-      </c>
-      <c r="E14" s="122" t="inlineStr">
-        <is>
-          <t>ajacks03@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F14" s="123" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="154" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B18" s="155" t="inlineStr">
+        <is>
+          <t>06644586</t>
+        </is>
+      </c>
+      <c r="C18" s="156" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" s="157" t="inlineStr">
+        <is>
+          <t>Kedem,Uri</t>
+        </is>
+      </c>
+      <c r="E18" s="158" t="inlineStr">
+        <is>
+          <t>urikedem@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F18" s="159" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G14" s="124" t="inlineStr">
+      <c r="G18" s="160" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H14" s="125" t="inlineStr">
+      <c r="H18" s="161" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I14" s="126" t="inlineStr">
+      <c r="I18" s="162" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="127" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B15" s="128" t="inlineStr">
-        <is>
-          <t>06262754</t>
-        </is>
-      </c>
-      <c r="C15" s="129" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="130" t="inlineStr">
-        <is>
-          <t>Jia,Rebecca Ran</t>
-        </is>
-      </c>
-      <c r="E15" s="131" t="inlineStr">
-        <is>
-          <t>rrjia@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F15" s="132" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="163" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B19" s="164" t="inlineStr">
+        <is>
+          <t>06678058</t>
+        </is>
+      </c>
+      <c r="C19" s="165" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" s="166" t="inlineStr">
+        <is>
+          <t>Kharatishvili,David</t>
+        </is>
+      </c>
+      <c r="E19" s="167" t="inlineStr">
+        <is>
+          <t>dkhar22@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F19" s="168" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G15" s="133" t="inlineStr">
+      <c r="G19" s="169" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H15" s="134" t="inlineStr">
-        <is>
-          <t>Mgmt Sci &amp; Engineering - 
--Mgmt Sci &amp; Engineering (MS)</t>
-        </is>
-      </c>
-      <c r="I15" s="135" t="inlineStr">
-        <is>
-          <t>Graduate Year 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="136" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B16" s="137" t="inlineStr">
-        <is>
-          <t>06643978</t>
-        </is>
-      </c>
-      <c r="C16" s="138" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="139" t="inlineStr">
-        <is>
-          <t>Kapur,Gautam</t>
-        </is>
-      </c>
-      <c r="E16" s="140" t="inlineStr">
-        <is>
-          <t>gautamgk@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F16" s="141" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G16" s="142" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H16" s="143" t="inlineStr">
+      <c r="H19" s="170" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I16" s="144" t="inlineStr">
+      <c r="I19" s="171" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="145" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B17" s="146" t="inlineStr">
-        <is>
-          <t>06643368</t>
-        </is>
-      </c>
-      <c r="C17" s="147" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="172" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B20" s="173" t="inlineStr">
+        <is>
+          <t>05920284</t>
+        </is>
+      </c>
+      <c r="C20" s="174" t="inlineStr">
         <is>
           <t>She/her</t>
         </is>
       </c>
-      <c r="D17" s="148" t="inlineStr">
-        <is>
-          <t>Kawatra,Srishti</t>
-        </is>
-      </c>
-      <c r="E17" s="149" t="inlineStr">
-        <is>
-          <t>skawatra@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F17" s="150" t="inlineStr">
+      <c r="D20" s="175" t="inlineStr">
+        <is>
+          <t>Kim,Yoo Eun</t>
+        </is>
+      </c>
+      <c r="E20" s="176" t="inlineStr">
+        <is>
+          <t>yooekim@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F20" s="177" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G17" s="151" t="inlineStr">
+      <c r="G20" s="178" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H17" s="152" t="inlineStr">
+      <c r="H20" s="179" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I17" s="153" t="inlineStr">
+      <c r="I20" s="180" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="154" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B18" s="155" t="inlineStr">
-        <is>
-          <t>06644586</t>
-        </is>
-      </c>
-      <c r="C18" s="156" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="157" t="inlineStr">
-        <is>
-          <t>Kedem,Uri</t>
-        </is>
-      </c>
-      <c r="E18" s="158" t="inlineStr">
-        <is>
-          <t>urikedem@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F18" s="159" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="181" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B21" s="182" t="inlineStr">
+        <is>
+          <t>06431154</t>
+        </is>
+      </c>
+      <c r="C21" s="183" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" s="184" t="inlineStr">
+        <is>
+          <t>Kolber,Natalie Sarah</t>
+        </is>
+      </c>
+      <c r="E21" s="185" t="inlineStr">
+        <is>
+          <t>nskolber@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F21" s="186" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G18" s="160" t="inlineStr">
+      <c r="G21" s="187" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H18" s="161" t="inlineStr">
+      <c r="H21" s="188" t="inlineStr">
+        <is>
+          <t>Bioengineering - 
++Bioengineering (PhD)</t>
+        </is>
+      </c>
+      <c r="I21" s="189" t="inlineStr">
+        <is>
+          <t>Graduate Year 4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="190" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B22" s="191" t="inlineStr">
+        <is>
+          <t>06678874</t>
+        </is>
+      </c>
+      <c r="C22" s="192" t="inlineStr">
+        <is>
+          <t>She/her</t>
+        </is>
+      </c>
+      <c r="D22" s="193" t="inlineStr">
+        <is>
+          <t>Kompalla,Julia Franziska</t>
+        </is>
+      </c>
+      <c r="E22" s="194" t="inlineStr">
+        <is>
+          <t>kompalla@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F22" s="195" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G22" s="196" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H22" s="197" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I18" s="162" t="inlineStr">
+      <c r="I22" s="198" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="163" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B19" s="164" t="inlineStr">
-        <is>
-          <t>06678058</t>
-        </is>
-      </c>
-      <c r="C19" s="165" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="166" t="inlineStr">
-        <is>
-          <t>Kharatishvili,David</t>
-        </is>
-      </c>
-      <c r="E19" s="167" t="inlineStr">
-        <is>
-          <t>dkhar22@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F19" s="168" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="199" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B23" s="200" t="inlineStr">
+        <is>
+          <t>06661327</t>
+        </is>
+      </c>
+      <c r="C23" s="201" t="inlineStr">
+        <is>
+          <t>She/her</t>
+        </is>
+      </c>
+      <c r="D23" s="202" t="inlineStr">
+        <is>
+          <t>Laskowski,Alexis Misha</t>
+        </is>
+      </c>
+      <c r="E23" s="203" t="inlineStr">
+        <is>
+          <t>lask1952@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F23" s="204" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G19" s="169" t="inlineStr">
+      <c r="G23" s="205" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H19" s="170" t="inlineStr">
+      <c r="H23" s="206" t="inlineStr">
+        <is>
+          <t>Civil and Environmental Engr - 
++Civil &amp; Envir Engr (MS)</t>
+        </is>
+      </c>
+      <c r="I23" s="207" t="inlineStr">
+        <is>
+          <t>Graduate Year 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="208" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B24" s="209" t="inlineStr">
+        <is>
+          <t>06488965</t>
+        </is>
+      </c>
+      <c r="C24" s="210" t="inlineStr">
+        <is>
+          <t>He/him</t>
+        </is>
+      </c>
+      <c r="D24" s="211" t="inlineStr">
+        <is>
+          <t>Li,Qixuan</t>
+        </is>
+      </c>
+      <c r="E24" s="212" t="inlineStr">
+        <is>
+          <t>qixuanli@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F24" s="213" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G24" s="214" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H24" s="215" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I19" s="171" t="inlineStr">
+      <c r="I24" s="216" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="172" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B20" s="173" t="inlineStr">
-        <is>
-          <t>05920284</t>
-        </is>
-      </c>
-      <c r="C20" s="174" t="inlineStr">
-        <is>
-          <t>She/her</t>
-        </is>
-      </c>
-      <c r="D20" s="175" t="inlineStr">
-        <is>
-          <t>Kim,Yoo Eun</t>
-        </is>
-      </c>
-      <c r="E20" s="176" t="inlineStr">
-        <is>
-          <t>yooekim@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F20" s="177" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="217" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B25" s="218" t="inlineStr">
+        <is>
+          <t>06357277</t>
+        </is>
+      </c>
+      <c r="C25" s="219" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="220" t="inlineStr">
+        <is>
+          <t>Lin,Kyle</t>
+        </is>
+      </c>
+      <c r="E25" s="221" t="inlineStr">
+        <is>
+          <t>ptlin84@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F25" s="222" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G20" s="178" t="inlineStr">
+      <c r="G25" s="223" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H20" s="179" t="inlineStr">
+      <c r="H25" s="224" t="inlineStr">
+        <is>
+          <t>Material Sci &amp; Engineering - 
++Materials Science &amp; Engr (MS)</t>
+        </is>
+      </c>
+      <c r="I25" s="225" t="inlineStr">
+        <is>
+          <t>Graduate Year 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="226" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B26" s="227" t="inlineStr">
+        <is>
+          <t>06542741</t>
+        </is>
+      </c>
+      <c r="C26" s="228" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D26" s="229" t="inlineStr">
+        <is>
+          <t>Marin Melero,Alvaro</t>
+        </is>
+      </c>
+      <c r="E26" s="230" t="inlineStr">
+        <is>
+          <t>alvarom@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F26" s="231" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G26" s="232" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H26" s="233" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I20" s="180" t="inlineStr">
+      <c r="I26" s="234" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="181" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B21" s="182" t="inlineStr">
-        <is>
-          <t>06431154</t>
-        </is>
-      </c>
-      <c r="C21" s="183" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="184" t="inlineStr">
-        <is>
-          <t>Kolber,Natalie Sarah</t>
-        </is>
-      </c>
-      <c r="E21" s="185" t="inlineStr">
-        <is>
-          <t>nskolber@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F21" s="186" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="235" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B27" s="236" t="inlineStr">
+        <is>
+          <t>06375711</t>
+        </is>
+      </c>
+      <c r="C27" s="237" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D27" s="238" t="inlineStr">
+        <is>
+          <t>Michaels,Jack Francis</t>
+        </is>
+      </c>
+      <c r="E27" s="239" t="inlineStr">
+        <is>
+          <t>jackfm@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F27" s="240" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G21" s="187" t="inlineStr">
+      <c r="G27" s="241" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H21" s="188" t="inlineStr">
-        <is>
-          <t>Bioengineering - 
+      <c r="H27" s="242" t="inlineStr">
+        <is>
+          <t>Undergraduate Matriculated - 
 -Bioengineering (PhD)</t>
-        </is>
-      </c>
-      <c r="I21" s="189" t="inlineStr">
-        <is>
-          <t>Graduate Year 4+</t>
+Computer Science (BS)/Mathematics (Min)</t>
+        </is>
+      </c>
+      <c r="I27" s="243" t="inlineStr">
+        <is>
+          <t>Senior</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="190" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B22" s="191" t="inlineStr">
-        <is>
-          <t>06678874</t>
-        </is>
-      </c>
-      <c r="C22" s="192" t="inlineStr">
-        <is>
-          <t>She/her</t>
-        </is>
-      </c>
-      <c r="D22" s="193" t="inlineStr">
-        <is>
-          <t>Kompalla,Julia Franziska</t>
-        </is>
-      </c>
-      <c r="E22" s="194" t="inlineStr">
-        <is>
-          <t>kompalla@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F22" s="195" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="244" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B28" s="245" t="inlineStr">
+        <is>
+          <t>06644185</t>
+        </is>
+      </c>
+      <c r="C28" s="246" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D28" s="247" t="inlineStr">
+        <is>
+          <t>Miller,Aaron</t>
+        </is>
+      </c>
+      <c r="E28" s="248" t="inlineStr">
+        <is>
+          <t>aaronjm@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F28" s="249" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G22" s="196" t="inlineStr">
+      <c r="G28" s="250" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H22" s="197" t="inlineStr">
+      <c r="H28" s="251" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I22" s="198" t="inlineStr">
+      <c r="I28" s="252" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="199" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B23" s="200" t="inlineStr">
-        <is>
-          <t>06661327</t>
-        </is>
-      </c>
-      <c r="C23" s="201" t="inlineStr">
-        <is>
-          <t>She/her</t>
-        </is>
-      </c>
-      <c r="D23" s="202" t="inlineStr">
-        <is>
-          <t>Laskowski,Alexis Misha</t>
-        </is>
-      </c>
-      <c r="E23" s="203" t="inlineStr">
-        <is>
-          <t>lask1952@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F23" s="204" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="253" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B29" s="254" t="inlineStr">
+        <is>
+          <t>05940553</t>
+        </is>
+      </c>
+      <c r="C29" s="255" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D29" s="256" t="inlineStr">
+        <is>
+          <t>Munoz,Jocelyne Arlette</t>
+        </is>
+      </c>
+      <c r="E29" s="257" t="inlineStr">
+        <is>
+          <t>jamunoz@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F29" s="258" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G23" s="205" t="inlineStr">
+      <c r="G29" s="259" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H23" s="206" t="inlineStr">
-        <is>
-          <t>Civil and Environmental Engr - 
--Civil &amp; Envir Engr (MS)</t>
-        </is>
-      </c>
-      <c r="I23" s="207" t="inlineStr">
-        <is>
-          <t>Graduate Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="208" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B24" s="209" t="inlineStr">
-        <is>
-          <t>06488965</t>
-        </is>
-      </c>
-      <c r="C24" s="210" t="inlineStr">
-        <is>
-          <t>He/him</t>
-        </is>
-      </c>
-      <c r="D24" s="211" t="inlineStr">
-        <is>
-          <t>Li,Qixuan</t>
-        </is>
-      </c>
-      <c r="E24" s="212" t="inlineStr">
-        <is>
-          <t>qixuanli@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F24" s="213" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G24" s="214" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H24" s="215" t="inlineStr">
+      <c r="H29" s="260" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I24" s="216" t="inlineStr">
+      <c r="I29" s="261" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="217" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B25" s="218" t="inlineStr">
-        <is>
-          <t>06357277</t>
-        </is>
-      </c>
-      <c r="C25" s="219" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="220" t="inlineStr">
-        <is>
-          <t>Lin,Kyle</t>
-        </is>
-      </c>
-      <c r="E25" s="221" t="inlineStr">
-        <is>
-          <t>ptlin84@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F25" s="222" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="262" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" s="263" t="inlineStr">
+        <is>
+          <t>06489968</t>
+        </is>
+      </c>
+      <c r="C30" s="264" t="inlineStr">
+        <is>
+          <t>She/her</t>
+        </is>
+      </c>
+      <c r="D30" s="265" t="inlineStr">
+        <is>
+          <t>Raje,Tanvi Nikita Vikas</t>
+        </is>
+      </c>
+      <c r="E30" s="266" t="inlineStr">
+        <is>
+          <t>traje@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F30" s="267" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G25" s="223" t="inlineStr">
+      <c r="G30" s="268" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H25" s="224" t="inlineStr">
-        <is>
-          <t>Material Sci &amp; Engineering - 
--Materials Science &amp; Engr (MS)</t>
-        </is>
-      </c>
-      <c r="I25" s="225" t="inlineStr">
-        <is>
-          <t>Graduate Year 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="226" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B26" s="227" t="inlineStr">
-        <is>
-          <t>06542741</t>
-        </is>
-      </c>
-      <c r="C26" s="228" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="229" t="inlineStr">
-        <is>
-          <t>Marin Melero,Alvaro</t>
-        </is>
-      </c>
-      <c r="E26" s="230" t="inlineStr">
-        <is>
-          <t>alvarom@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F26" s="231" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G26" s="232" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H26" s="233" t="inlineStr">
+      <c r="H30" s="269" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I26" s="234" t="inlineStr">
+      <c r="I30" s="270" t="inlineStr">
+        <is>
+          <t>Professional Year 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="271" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B31" s="272" t="inlineStr">
+        <is>
+          <t>05791421</t>
+        </is>
+      </c>
+      <c r="C31" s="273" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="D31" s="274" t="inlineStr">
+        <is>
+          <t>Regan,Connor</t>
+        </is>
+      </c>
+      <c r="E31" s="275" t="inlineStr">
+        <is>
+          <t>cregan7@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F31" s="276" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G31" s="277" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H31" s="278" t="inlineStr">
+        <is>
+          <t>Business Administration - 
++Business Administration (MBA)</t>
+        </is>
+      </c>
+      <c r="I31" s="279" t="inlineStr">
+        <is>
+          <t>Professional Year 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="280" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B32" s="281" t="inlineStr">
+        <is>
+          <t>06678420</t>
+        </is>
+      </c>
+      <c r="C32" s="282" t="inlineStr">
+        <is>
+          <t>He/him</t>
+        </is>
+      </c>
+      <c r="D32" s="283" t="inlineStr">
+        <is>
+          <t>Rosenblatt,Tom Stern</t>
+        </is>
+      </c>
+      <c r="E32" s="284" t="inlineStr">
+        <is>
+          <t>tomrose@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F32" s="285" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G32" s="286" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H32" s="287" t="inlineStr">
+        <is>
+          <t>Business Administration - 
++Business Administration (MBA)</t>
+        </is>
+      </c>
+      <c r="I32" s="288" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="235" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B27" s="236" t="inlineStr">
-        <is>
-          <t>06050495</t>
-        </is>
-      </c>
-      <c r="C27" s="237" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="238" t="inlineStr">
-        <is>
-          <t>Medina Perez,Antonio Rafael</t>
-        </is>
-      </c>
-      <c r="E27" s="239" t="inlineStr">
-        <is>
-          <t>amedina8@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F27" s="240" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B33" s="290" t="inlineStr">
+        <is>
+          <t>06643748</t>
+        </is>
+      </c>
+      <c r="C33" s="291" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D33" s="292" t="inlineStr">
+        <is>
+          <t>Sabaté,Ignacio</t>
+        </is>
+      </c>
+      <c r="E33" s="293" t="inlineStr">
+        <is>
+          <t>isabate@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F33" s="294" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G27" s="241" t="inlineStr">
+      <c r="G33" s="295" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H27" s="242" t="inlineStr">
+      <c r="H33" s="296" t="inlineStr">
+        <is>
+          <t>Business Administration - 
++Business Administration (MBA)</t>
+        </is>
+      </c>
+      <c r="I33" s="297" t="inlineStr">
+        <is>
+          <t>Professional Year 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="298" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B34" s="299" t="inlineStr">
+        <is>
+          <t>06450271</t>
+        </is>
+      </c>
+      <c r="C34" s="300" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D34" s="301" t="inlineStr">
+        <is>
+          <t>Schlein,Nate</t>
+        </is>
+      </c>
+      <c r="E34" s="302" t="inlineStr">
+        <is>
+          <t>nschlein@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F34" s="303" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G34" s="304" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H34" s="305" t="inlineStr">
+        <is>
+          <t>Business Administration - 
++Business Administration (MBA)</t>
+        </is>
+      </c>
+      <c r="I34" s="306" t="inlineStr">
+        <is>
+          <t>Professional Year 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="307" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B35" s="308" t="inlineStr">
+        <is>
+          <t>06644933</t>
+        </is>
+      </c>
+      <c r="C35" s="309" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D35" s="310" t="inlineStr">
+        <is>
+          <t>Skrobach,Mykhailo</t>
+        </is>
+      </c>
+      <c r="E35" s="311" t="inlineStr">
+        <is>
+          <t>skrobach@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F35" s="312" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G35" s="313" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H35" s="314" t="inlineStr">
+        <is>
+          <t>Business Administration - 
++Business Administration (MBA)</t>
+        </is>
+      </c>
+      <c r="I35" s="315" t="inlineStr">
+        <is>
+          <t>Professional Year 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="316" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" s="317" t="inlineStr">
+        <is>
+          <t>05612382</t>
+        </is>
+      </c>
+      <c r="C36" s="318" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D36" s="319" t="inlineStr">
+        <is>
+          <t>Stickney,Stanford</t>
+        </is>
+      </c>
+      <c r="E36" s="320" t="inlineStr">
+        <is>
+          <t>stanstic@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F36" s="321" t="inlineStr">
+        <is>
+          <t>GSB Ltr</t>
+        </is>
+      </c>
+      <c r="G36" s="322" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H36" s="323" t="inlineStr">
         <is>
           <t>Engineering - 
  Engineering (MS)</t>
         </is>
       </c>
-      <c r="I27" s="243" t="inlineStr">
+      <c r="I36" s="324" t="inlineStr">
         <is>
           <t>Graduate Year 2</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="244" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B28" s="245" t="inlineStr">
-        <is>
-          <t>06375711</t>
-        </is>
-      </c>
-      <c r="C28" s="246" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="247" t="inlineStr">
-        <is>
-          <t>Michaels,Jack Francis</t>
-        </is>
-      </c>
-      <c r="E28" s="248" t="inlineStr">
-        <is>
-          <t>jackfm@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F28" s="249" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="325" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B37" s="326" t="inlineStr">
+        <is>
+          <t>05745832</t>
+        </is>
+      </c>
+      <c r="C37" s="327" t="inlineStr">
+        <is>
+          <t>She/her</t>
+        </is>
+      </c>
+      <c r="D37" s="328" t="inlineStr">
+        <is>
+          <t>Tang,Jiawen</t>
+        </is>
+      </c>
+      <c r="E37" s="329" t="inlineStr">
+        <is>
+          <t>jiawent@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F37" s="330" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G28" s="250" t="inlineStr">
+      <c r="G37" s="331" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H28" s="251" t="inlineStr">
-        <is>
-          <t>Undergraduate Matriculated - 
--Computer Science (BS)/Mathematics (Min)</t>
-        </is>
-      </c>
-      <c r="I28" s="252" t="inlineStr">
-        <is>
-          <t>Senior</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="253" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B29" s="254" t="inlineStr">
-        <is>
-          <t>06644185</t>
-        </is>
-      </c>
-      <c r="C29" s="255" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="256" t="inlineStr">
-        <is>
-          <t>Miller,Aaron</t>
-        </is>
-      </c>
-      <c r="E29" s="257" t="inlineStr">
-        <is>
-          <t>aaronjm@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F29" s="258" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G29" s="259" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H29" s="260" t="inlineStr">
+      <c r="H37" s="332" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I29" s="261" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
+      <c r="I37" s="333" t="inlineStr">
+        <is>
+          <t>Professional Year 2</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="262" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B30" s="263" t="inlineStr">
-        <is>
-          <t>05818876</t>
-        </is>
-      </c>
-      <c r="C30" s="264" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="265" t="inlineStr">
-        <is>
-          <t>Mohindra,Minali</t>
-        </is>
-      </c>
-      <c r="E30" s="266" t="inlineStr">
-        <is>
-          <t>minali@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F30" s="267" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="334" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B38" s="335" t="inlineStr">
+        <is>
+          <t>06677827</t>
+        </is>
+      </c>
+      <c r="C38" s="336" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D38" s="337" t="inlineStr">
+        <is>
+          <t>Uwimana,Sandy</t>
+        </is>
+      </c>
+      <c r="E38" s="338" t="inlineStr">
+        <is>
+          <t>suwimana@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F38" s="339" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G30" s="268" t="inlineStr">
+      <c r="G38" s="340" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H30" s="269" t="inlineStr">
+      <c r="H38" s="341" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I30" s="270" t="inlineStr">
+      <c r="I38" s="342" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="271" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B31" s="272" t="inlineStr">
-        <is>
-          <t>06643465</t>
-        </is>
-      </c>
-      <c r="C31" s="273" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="274" t="inlineStr">
-        <is>
-          <t>Muco,Evi</t>
-        </is>
-      </c>
-      <c r="E31" s="275" t="inlineStr">
-        <is>
-          <t>emuco@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F31" s="276" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="343" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B39" s="344" t="inlineStr">
+        <is>
+          <t>06677883</t>
+        </is>
+      </c>
+      <c r="C39" s="345" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D39" s="346" t="inlineStr">
+        <is>
+          <t>Vidri,Nacho</t>
+        </is>
+      </c>
+      <c r="E39" s="347" t="inlineStr">
+        <is>
+          <t>nachov@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F39" s="348" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G31" s="277" t="inlineStr">
+      <c r="G39" s="349" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H31" s="278" t="inlineStr">
+      <c r="H39" s="350" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I31" s="279" t="inlineStr">
+      <c r="I39" s="351" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="280" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B32" s="281" t="inlineStr">
-        <is>
-          <t>05940553</t>
-        </is>
-      </c>
-      <c r="C32" s="282" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="283" t="inlineStr">
-        <is>
-          <t>Munoz,Jocelyne Arlette</t>
-        </is>
-      </c>
-      <c r="E32" s="284" t="inlineStr">
-        <is>
-          <t>jamunoz@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F32" s="285" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="352" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B40" s="353" t="inlineStr">
+        <is>
+          <t>06483143</t>
+        </is>
+      </c>
+      <c r="C40" s="354" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D40" s="355" t="inlineStr">
+        <is>
+          <t>Wagura,David Wangombe</t>
+        </is>
+      </c>
+      <c r="E40" s="356" t="inlineStr">
+        <is>
+          <t>dwagura@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F40" s="357" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G32" s="286" t="inlineStr">
+      <c r="G40" s="358" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H32" s="287" t="inlineStr">
+      <c r="H40" s="359" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I32" s="288" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
+      <c r="I40" s="360" t="inlineStr">
+        <is>
+          <t>Professional Year 2</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="289" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B33" s="290" t="inlineStr">
-        <is>
-          <t>06305235</t>
-        </is>
-      </c>
-      <c r="C33" s="291" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="292" t="inlineStr">
-        <is>
-          <t>Pickering,Josh</t>
-        </is>
-      </c>
-      <c r="E33" s="293" t="inlineStr">
-        <is>
-          <t>joshpick@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F33" s="294" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="361" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B41" s="362" t="inlineStr">
+        <is>
+          <t>06644553</t>
+        </is>
+      </c>
+      <c r="C41" s="363" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D41" s="364" t="inlineStr">
+        <is>
+          <t>Whittaker,Mark Robert</t>
+        </is>
+      </c>
+      <c r="E41" s="365" t="inlineStr">
+        <is>
+          <t>markwhit@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F41" s="366" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G33" s="295" t="inlineStr">
+      <c r="G41" s="367" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H33" s="296" t="inlineStr">
+      <c r="H41" s="368" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I33" s="297" t="inlineStr">
+      <c r="I41" s="369" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="298" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B34" s="299" t="inlineStr">
-        <is>
-          <t>06489968</t>
-        </is>
-      </c>
-      <c r="C34" s="300" t="inlineStr">
-        <is>
-          <t>She/her</t>
-        </is>
-      </c>
-      <c r="D34" s="301" t="inlineStr">
-        <is>
-          <t>Raje,Tanvi Nikita Vikas</t>
-        </is>
-      </c>
-      <c r="E34" s="302" t="inlineStr">
-        <is>
-          <t>traje@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F34" s="303" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="370" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B42" s="371" t="inlineStr">
+        <is>
+          <t>06677869</t>
+        </is>
+      </c>
+      <c r="C42" s="372" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D42" s="373" t="inlineStr">
+        <is>
+          <t>Young,Gray Scott</t>
+        </is>
+      </c>
+      <c r="E42" s="374" t="inlineStr">
+        <is>
+          <t>grayy@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F42" s="375" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G34" s="304" t="inlineStr">
+      <c r="G42" s="376" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H34" s="305" t="inlineStr">
+      <c r="H42" s="377" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I34" s="306" t="inlineStr">
-        <is>
-          <t>Professional Year 2</t>
+      <c r="I42" s="378" t="inlineStr">
+        <is>
+          <t>Professional Year 1</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="307" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B35" s="308" t="inlineStr">
-        <is>
-          <t>05791421</t>
-        </is>
-      </c>
-      <c r="C35" s="309" t="inlineStr">
-        <is>
-          <t>Any</t>
-        </is>
-      </c>
-      <c r="D35" s="310" t="inlineStr">
-        <is>
-          <t>Regan,Connor</t>
-        </is>
-      </c>
-      <c r="E35" s="311" t="inlineStr">
-        <is>
-          <t>cregan7@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F35" s="312" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="379" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B43" s="380" t="inlineStr">
+        <is>
+          <t>06643684</t>
+        </is>
+      </c>
+      <c r="C43" s="381" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D43" s="382" t="inlineStr">
+        <is>
+          <t>harris,david</t>
+        </is>
+      </c>
+      <c r="E43" s="383" t="inlineStr">
+        <is>
+          <t>drharris@stanford.edu</t>
+        </is>
+      </c>
+      <c r="F43" s="384" t="inlineStr">
         <is>
           <t>GSB Ltr</t>
         </is>
       </c>
-      <c r="G35" s="313" t="inlineStr">
+      <c r="G43" s="385" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H35" s="314" t="inlineStr">
+      <c r="H43" s="386" t="inlineStr">
         <is>
           <t>Business Administration - 
  Business Administration (MBA)</t>
         </is>
       </c>
-      <c r="I35" s="315" t="inlineStr">
-        <is>
-          <t>Professional Year 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="316" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B36" s="317" t="inlineStr">
-        <is>
-          <t>06678420</t>
-        </is>
-      </c>
-      <c r="C36" s="318" t="inlineStr">
-        <is>
-          <t>He/him</t>
-        </is>
-      </c>
-      <c r="D36" s="319" t="inlineStr">
-        <is>
-          <t>Rosenblatt,Tom Stern</t>
-        </is>
-      </c>
-      <c r="E36" s="320" t="inlineStr">
-        <is>
-          <t>tomrose@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F36" s="321" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G36" s="322" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H36" s="323" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I36" s="324" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="325" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B37" s="326" t="inlineStr">
-        <is>
-          <t>06678801</t>
-        </is>
-      </c>
-      <c r="C37" s="327" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="328" t="inlineStr">
-        <is>
-          <t>Rosenkrantz,Juan</t>
-        </is>
-      </c>
-      <c r="E37" s="329" t="inlineStr">
-        <is>
-          <t>juanr94@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F37" s="330" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G37" s="331" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H37" s="332" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I37" s="333" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="334" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B38" s="335" t="inlineStr">
-        <is>
-          <t>06542200</t>
-        </is>
-      </c>
-      <c r="C38" s="336" t="inlineStr">
-        <is>
-          <t>She/her</t>
-        </is>
-      </c>
-      <c r="D38" s="337" t="inlineStr">
-        <is>
-          <t>Rubio Rodriguez,Alba</t>
-        </is>
-      </c>
-      <c r="E38" s="338" t="inlineStr">
-        <is>
-          <t>albarr@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F38" s="339" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G38" s="340" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H38" s="341" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I38" s="342" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="343" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B39" s="344" t="inlineStr">
-        <is>
-          <t>06643748</t>
-        </is>
-      </c>
-      <c r="C39" s="345" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="346" t="inlineStr">
-        <is>
-          <t>Sabaté,Ignacio</t>
-        </is>
-      </c>
-      <c r="E39" s="347" t="inlineStr">
-        <is>
-          <t>isabate@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F39" s="348" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G39" s="349" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H39" s="350" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I39" s="351" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="352" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B40" s="353" t="inlineStr">
-        <is>
-          <t>06450271</t>
-        </is>
-      </c>
-      <c r="C40" s="354" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="355" t="inlineStr">
-        <is>
-          <t>Schlein,Nate</t>
-        </is>
-      </c>
-      <c r="E40" s="356" t="inlineStr">
-        <is>
-          <t>nschlein@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F40" s="357" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G40" s="358" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H40" s="359" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I40" s="360" t="inlineStr">
-        <is>
-          <t>Professional Year 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="361" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B41" s="362" t="inlineStr">
-        <is>
-          <t>05938700</t>
-        </is>
-      </c>
-      <c r="C41" s="363" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="364" t="inlineStr">
-        <is>
-          <t>Schwartz,Ben Liad</t>
-        </is>
-      </c>
-      <c r="E41" s="365" t="inlineStr">
-        <is>
-          <t>ben4@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F41" s="366" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G41" s="367" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H41" s="368" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I41" s="369" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="370" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B42" s="371" t="inlineStr">
-        <is>
-          <t>06644933</t>
-        </is>
-      </c>
-      <c r="C42" s="372" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="373" t="inlineStr">
-        <is>
-          <t>Skrobach,Mykhailo</t>
-        </is>
-      </c>
-      <c r="E42" s="374" t="inlineStr">
-        <is>
-          <t>skrobach@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F42" s="375" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G42" s="376" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H42" s="377" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I42" s="378" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="379" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B43" s="380" t="inlineStr">
-        <is>
-          <t>05745832</t>
-        </is>
-      </c>
-      <c r="C43" s="381" t="inlineStr">
-        <is>
-          <t>She/her</t>
-        </is>
-      </c>
-      <c r="D43" s="382" t="inlineStr">
-        <is>
-          <t>Tang,Jiawen</t>
-        </is>
-      </c>
-      <c r="E43" s="383" t="inlineStr">
-        <is>
-          <t>jiawent@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F43" s="384" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G43" s="385" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H43" s="386" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
       <c r="I43" s="387" t="inlineStr">
-        <is>
-          <t>Professional Year 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="388" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B44" s="389" t="inlineStr">
-        <is>
-          <t>06677827</t>
-        </is>
-      </c>
-      <c r="C44" s="390" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="391" t="inlineStr">
-        <is>
-          <t>Uwimana,Sandy</t>
-        </is>
-      </c>
-      <c r="E44" s="392" t="inlineStr">
-        <is>
-          <t>suwimana@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F44" s="393" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G44" s="394" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H44" s="395" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I44" s="396" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="397" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B45" s="398" t="inlineStr">
-        <is>
-          <t>06677883</t>
-        </is>
-      </c>
-      <c r="C45" s="399" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="400" t="inlineStr">
-        <is>
-          <t>Vidri,Nacho</t>
-        </is>
-      </c>
-      <c r="E45" s="401" t="inlineStr">
-        <is>
-          <t>nachov@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F45" s="402" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G45" s="403" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H45" s="404" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I45" s="405" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="406" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B46" s="407" t="inlineStr">
-        <is>
-          <t>06483143</t>
-        </is>
-      </c>
-      <c r="C46" s="408" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="409" t="inlineStr">
-        <is>
-          <t>Wagura,David Wangombe</t>
-        </is>
-      </c>
-      <c r="E46" s="410" t="inlineStr">
-        <is>
-          <t>dwagura@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F46" s="411" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G46" s="412" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H46" s="413" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I46" s="414" t="inlineStr">
-        <is>
-          <t>Professional Year 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="415" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B47" s="416" t="inlineStr">
-        <is>
-          <t>06644553</t>
-        </is>
-      </c>
-      <c r="C47" s="417" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="418" t="inlineStr">
-        <is>
-          <t>Whittaker,Mark Robert</t>
-        </is>
-      </c>
-      <c r="E47" s="419" t="inlineStr">
-        <is>
-          <t>markwhit@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F47" s="420" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G47" s="421" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H47" s="422" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I47" s="423" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="424" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B48" s="425" t="inlineStr">
-        <is>
-          <t>06677869</t>
-        </is>
-      </c>
-      <c r="C48" s="426" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="427" t="inlineStr">
-        <is>
-          <t>Young,Gray Scott</t>
-        </is>
-      </c>
-      <c r="E48" s="428" t="inlineStr">
-        <is>
-          <t>grayy@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F48" s="429" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G48" s="430" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H48" s="431" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I48" s="432" t="inlineStr">
-        <is>
-          <t>Professional Year 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="433" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B49" s="434" t="inlineStr">
-        <is>
-          <t>06643684</t>
-        </is>
-      </c>
-      <c r="C49" s="435" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="436" t="inlineStr">
-        <is>
-          <t>harris,david</t>
-        </is>
-      </c>
-      <c r="E49" s="437" t="inlineStr">
-        <is>
-          <t>drharris@stanford.edu</t>
-        </is>
-      </c>
-      <c r="F49" s="438" t="inlineStr">
-        <is>
-          <t>GSB Ltr</t>
-        </is>
-      </c>
-      <c r="G49" s="439" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H49" s="440" t="inlineStr">
-        <is>
-          <t>Business Administration - 
--Business Administration (MBA)</t>
-        </is>
-      </c>
-      <c r="I49" s="441" t="inlineStr">
         <is>
           <t>Professional Year 1</t>
         </is>
